--- a/Output_code/Data/Table_2_stand.xlsx
+++ b/Output_code/Data/Table_2_stand.xlsx
@@ -482,25 +482,25 @@
         <v>0.165017814910094</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0353631881813833</v>
+        <v>0.0340211326644019</v>
       </c>
       <c r="C2" t="n">
-        <v>0.106845370351719</v>
+        <v>0.109053051677153</v>
       </c>
       <c r="D2" t="n">
-        <v>0.22319025946847</v>
+        <v>0.220982578143035</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0957059660745831</v>
+        <v>0.0983363948878665</v>
       </c>
       <c r="F2" t="n">
-        <v>0.234329663745605</v>
+        <v>0.231699234932322</v>
       </c>
       <c r="G2" t="n">
-        <v>0.073922242154851</v>
+        <v>0.0773793771665949</v>
       </c>
       <c r="H2" t="n">
-        <v>0.256113387665338</v>
+        <v>0.252656252653594</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -523,25 +523,25 @@
         <v>0.0552405270046893</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0255384894465046</v>
+        <v>0.0260787250973549</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0132297118651892</v>
+        <v>0.0123410242195406</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0972513421441894</v>
+        <v>0.0981400297898381</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00518508768954025</v>
+        <v>0.00412622581387377</v>
       </c>
       <c r="F3" t="n">
-        <v>0.105295966319838</v>
+        <v>0.106354828195505</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0105466218095066</v>
+        <v>-0.0119382688460968</v>
       </c>
       <c r="H3" t="n">
-        <v>0.121027675818885</v>
+        <v>0.122419322855475</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
@@ -564,25 +564,25 @@
         <v>0.05408179487656</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0308345535402872</v>
+        <v>0.0312112925670055</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00335895430278763</v>
+        <v>0.00273921860383592</v>
       </c>
       <c r="D4" t="n">
-        <v>0.104804635450332</v>
+        <v>0.105424371149284</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.00635393006240283</v>
+        <v>-0.00709233855477082</v>
       </c>
       <c r="F4" t="n">
-        <v>0.114517519815523</v>
+        <v>0.115255928307891</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0253480150432197</v>
+        <v>-0.0263184947760462</v>
       </c>
       <c r="H4" t="n">
-        <v>0.13351160479634</v>
+        <v>0.134482084529166</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
@@ -605,25 +605,25 @@
         <v>0.100858088041179</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0301977934767425</v>
+        <v>0.0283119353677098</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0511827177719373</v>
+        <v>0.0542849543612961</v>
       </c>
       <c r="D5" t="n">
-        <v>0.15053345831042</v>
+        <v>0.147431221721061</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0416704128267634</v>
+        <v>0.0453666947204675</v>
       </c>
       <c r="F5" t="n">
-        <v>0.160045763255594</v>
+        <v>0.15634948136189</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02306857204509</v>
+        <v>0.0279265425339583</v>
       </c>
       <c r="H5" t="n">
-        <v>0.178647604037268</v>
+        <v>0.173789633548399</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -646,25 +646,25 @@
         <v>0.065607061474195</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0220284639056399</v>
+        <v>0.0196393803159271</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0293702383494174</v>
+        <v>0.0333002808544949</v>
       </c>
       <c r="D6" t="n">
-        <v>0.101843884598973</v>
+        <v>0.0979138420938951</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0224312722191408</v>
+        <v>0.0271138760549779</v>
       </c>
       <c r="F6" t="n">
-        <v>0.108782850729249</v>
+        <v>0.104100246893412</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00886173845326663</v>
+        <v>0.0150160177803668</v>
       </c>
       <c r="H6" t="n">
-        <v>0.122352384495123</v>
+        <v>0.116198105168023</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
@@ -687,25 +687,25 @@
         <v>0.0962850860314941</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0268982769337023</v>
+        <v>0.0280808878169318</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0520374204755538</v>
+        <v>0.0500920255726413</v>
       </c>
       <c r="D7" t="n">
-        <v>0.140532751587434</v>
+        <v>0.142478146490347</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0435644632414376</v>
+        <v>0.0412465459103077</v>
       </c>
       <c r="F7" t="n">
-        <v>0.149005708821551</v>
+        <v>0.15132362615268</v>
       </c>
       <c r="G7" t="n">
-        <v>0.026995124650277</v>
+        <v>0.0239487190150777</v>
       </c>
       <c r="H7" t="n">
-        <v>0.165575047412711</v>
+        <v>0.16862145304791</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
@@ -728,25 +728,25 @@
         <v>0.140754998266255</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0287879591833813</v>
+        <v>0.0291115198239441</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0933988054095923</v>
+        <v>0.0928665481558665</v>
       </c>
       <c r="D8" t="n">
-        <v>0.188111191122917</v>
+        <v>0.188643448376643</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0843305982668272</v>
+        <v>0.0836964194113241</v>
       </c>
       <c r="F8" t="n">
-        <v>0.197179398265682</v>
+        <v>0.197813577121185</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0665972154098643</v>
+        <v>0.0657637231997745</v>
       </c>
       <c r="H8" t="n">
-        <v>0.214912781122645</v>
+        <v>0.215746273332735</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
@@ -769,25 +769,25 @@
         <v>0.088235519626047</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0205367621532576</v>
+        <v>0.0232429210806394</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0544525458839383</v>
+        <v>0.0500009144483951</v>
       </c>
       <c r="D9" t="n">
-        <v>0.122018493368156</v>
+        <v>0.126470124803699</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0479834658056622</v>
+        <v>0.0426793943079937</v>
       </c>
       <c r="F9" t="n">
-        <v>0.128487573446432</v>
+        <v>0.1337916449441</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0353328203192555</v>
+        <v>0.0283617549223198</v>
       </c>
       <c r="H9" t="n">
-        <v>0.141138218932838</v>
+        <v>0.148109284329774</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
@@ -810,25 +810,25 @@
         <v>0.088914899085553</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0292331632470473</v>
+        <v>0.0307616222278338</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0408263455441602</v>
+        <v>0.0383120305207663</v>
       </c>
       <c r="D10" t="n">
-        <v>0.137003452626946</v>
+        <v>0.13951776765034</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0316178991213403</v>
+        <v>0.0286221195189986</v>
       </c>
       <c r="F10" t="n">
-        <v>0.146211899049766</v>
+        <v>0.149207678652107</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0136102705611592</v>
+        <v>0.00967296022665298</v>
       </c>
       <c r="H10" t="n">
-        <v>0.164219527609947</v>
+        <v>0.168156837944453</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -851,25 +851,25 @@
         <v>0.121340456798534</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0290249532332484</v>
+        <v>0.0264094776025516</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07359440872984</v>
+        <v>0.0778968661423362</v>
       </c>
       <c r="D11" t="n">
-        <v>0.169086504867227</v>
+        <v>0.164784047454731</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0644515484613668</v>
+        <v>0.0695778806975325</v>
       </c>
       <c r="F11" t="n">
-        <v>0.178229365135701</v>
+        <v>0.173103032899535</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0465721772696857</v>
+        <v>0.0533096424943607</v>
       </c>
       <c r="H11" t="n">
-        <v>0.196108736327382</v>
+        <v>0.189371271102707</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
@@ -892,25 +892,25 @@
         <v>0.0750197302604821</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0260438628599907</v>
+        <v>0.0282286681493984</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0321775758557973</v>
+        <v>0.0285835711547217</v>
       </c>
       <c r="D12" t="n">
-        <v>0.117861884665167</v>
+        <v>0.121455889366242</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0239737590549003</v>
+        <v>0.0196915406876612</v>
       </c>
       <c r="F12" t="n">
-        <v>0.126065701466064</v>
+        <v>0.130347919833303</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00793073953314598</v>
+        <v>0.00230268110763183</v>
       </c>
       <c r="H12" t="n">
-        <v>0.142108720987818</v>
+        <v>0.147736779413332</v>
       </c>
       <c r="I12" t="s">
         <v>13</v>
@@ -933,25 +933,25 @@
         <v>0.0668459465025202</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0348396861661572</v>
+        <v>0.0360899965195374</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00953466275919149</v>
+        <v>0.00747790222788111</v>
       </c>
       <c r="D13" t="n">
-        <v>0.124157230245849</v>
+        <v>0.126213990777159</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.00143983838314804</v>
+        <v>-0.00389044667577318</v>
       </c>
       <c r="F13" t="n">
-        <v>0.135131731388188</v>
+        <v>0.137582339680814</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0229010850615009</v>
+        <v>-0.0261218845318082</v>
       </c>
       <c r="H13" t="n">
-        <v>0.156592978066541</v>
+        <v>0.159813777536849</v>
       </c>
       <c r="I13" t="s">
         <v>20</v>
@@ -974,25 +974,25 @@
         <v>0.142563289509739</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0331011349091396</v>
+        <v>0.0341328438902724</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0881119225842041</v>
+        <v>0.0864147613102405</v>
       </c>
       <c r="D14" t="n">
-        <v>0.197014656435273</v>
+        <v>0.198711817709237</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0776850650878251</v>
+        <v>0.0756629154848047</v>
       </c>
       <c r="F14" t="n">
-        <v>0.207441513931652</v>
+        <v>0.209463663534673</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0572947659837951</v>
+        <v>0.0546370836483969</v>
       </c>
       <c r="H14" t="n">
-        <v>0.227831813035682</v>
+        <v>0.23048949537108</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
@@ -1015,25 +1015,25 @@
         <v>0.0956087066241622</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0227587232239331</v>
+        <v>0.0229980284523423</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0581706069207922</v>
+        <v>0.057776949820059</v>
       </c>
       <c r="D15" t="n">
-        <v>0.133046806327532</v>
+        <v>0.133440463428265</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0510016091052533</v>
+        <v>0.0505325708575712</v>
       </c>
       <c r="F15" t="n">
-        <v>0.140215804143071</v>
+        <v>0.140684842390753</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0369822355993105</v>
+        <v>0.0363657853309283</v>
       </c>
       <c r="H15" t="n">
-        <v>0.154235177649014</v>
+        <v>0.154851627917396</v>
       </c>
       <c r="I15" t="s">
         <v>13</v>
@@ -1056,25 +1056,25 @@
         <v>0.105681134864202</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0229172316254706</v>
+        <v>0.0248264934398321</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0679822888403031</v>
+        <v>0.0648415531556785</v>
       </c>
       <c r="D16" t="n">
-        <v>0.143379980888101</v>
+        <v>0.146520716572726</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0607633608782798</v>
+        <v>0.0570212077221314</v>
       </c>
       <c r="F16" t="n">
-        <v>0.150598908850125</v>
+        <v>0.154341062006273</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0466463461969899</v>
+        <v>0.0417280877631948</v>
       </c>
       <c r="H16" t="n">
-        <v>0.164715923531415</v>
+        <v>0.16963418196521</v>
       </c>
       <c r="I16" t="s">
         <v>13</v>
@@ -1097,25 +1097,25 @@
         <v>-0.132835101193132</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0423407049915154</v>
+        <v>0.0412787640723657</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.202485560904175</v>
+        <v>-0.200738668092174</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0631846414820895</v>
+        <v>-0.0649315342940907</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.215822882976502</v>
+        <v>-0.213741478774969</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0498473194097622</v>
+        <v>-0.0519287236112955</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.241904757251276</v>
+        <v>-0.239169197443546</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.0237654451349887</v>
+        <v>-0.0265010049427182</v>
       </c>
       <c r="I17" t="s">
         <v>13</v>
@@ -1138,25 +1138,25 @@
         <v>-0.0621421633723978</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0321808857808278</v>
+        <v>0.0326480778934384</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.11507972048186</v>
+        <v>-0.115848251507104</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.00920460626293602</v>
+        <v>-0.00843607523769165</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.12521669950282</v>
+        <v>-0.126132396043537</v>
       </c>
       <c r="F18" t="n">
-        <v>0.000932372758024741</v>
+        <v>0.00184806929874144</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.14504012514381</v>
+        <v>-0.146243612025895</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0207557983990147</v>
+        <v>0.0219592852810995</v>
       </c>
       <c r="I18" t="s">
         <v>20</v>
@@ -1179,25 +1179,25 @@
         <v>-0.0410718673941528</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0384832784713015</v>
+        <v>0.0365840856413898</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.104376860479444</v>
+        <v>-0.101252688274239</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0222331256911381</v>
+        <v>0.0191089534859335</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.116499093197904</v>
+        <v>-0.112776675251277</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0343553584095981</v>
+        <v>0.0306329404629713</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.140204792736225</v>
+        <v>-0.135312472006373</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0580610579479198</v>
+        <v>0.0531687372180674</v>
       </c>
       <c r="I19" t="s">
         <v>27</v>
@@ -1220,25 +1220,25 @@
         <v>0.142361838877443</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0349945327325392</v>
+        <v>0.0317343660810135</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0847958325324163</v>
+        <v>0.0901588066741761</v>
       </c>
       <c r="D20" t="n">
-        <v>0.19992784522247</v>
+        <v>0.19456487108071</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0737725547216664</v>
+        <v>0.0801624813586568</v>
       </c>
       <c r="F20" t="n">
-        <v>0.21095112303322</v>
+        <v>0.20456119639623</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0522159225584223</v>
+        <v>0.0606141118527525</v>
       </c>
       <c r="H20" t="n">
-        <v>0.232507755196464</v>
+        <v>0.224109565902134</v>
       </c>
       <c r="I20" t="s">
         <v>13</v>
@@ -1261,25 +1261,25 @@
         <v>0.0798637326132217</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0249940171185569</v>
+        <v>0.0239058301555318</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0387485744531956</v>
+        <v>0.0405386420073718</v>
       </c>
       <c r="D21" t="n">
-        <v>0.120978890773248</v>
+        <v>0.119188823219072</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0308754590608501</v>
+        <v>0.0330083055083793</v>
       </c>
       <c r="F21" t="n">
-        <v>0.128852006165593</v>
+        <v>0.126719159718064</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0154791445158191</v>
+        <v>0.0182823141325717</v>
       </c>
       <c r="H21" t="n">
-        <v>0.144248320710624</v>
+        <v>0.141445151093872</v>
       </c>
       <c r="I21" t="s">
         <v>13</v>
@@ -1302,25 +1302,25 @@
         <v>0.073707254515357</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0349975151463222</v>
+        <v>0.0306448083311828</v>
       </c>
       <c r="C22" t="n">
-        <v>0.016136342099657</v>
+        <v>0.0232965448105614</v>
       </c>
       <c r="D22" t="n">
-        <v>0.131278166931057</v>
+        <v>0.124117964220153</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00511212482856553</v>
+        <v>0.0136434301862388</v>
       </c>
       <c r="F22" t="n">
-        <v>0.142302384202148</v>
+        <v>0.133771078844475</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.0164463445015689</v>
+        <v>-0.00523377174576978</v>
       </c>
       <c r="H22" t="n">
-        <v>0.163860853532283</v>
+        <v>0.152648280776484</v>
       </c>
       <c r="I22" t="s">
         <v>18</v>
@@ -1343,25 +1343,25 @@
         <v>0.464559682152778</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0411046924366857</v>
+        <v>0.0402673508309846</v>
       </c>
       <c r="C23" t="n">
-        <v>0.39694246309443</v>
+        <v>0.398319890035808</v>
       </c>
       <c r="D23" t="n">
-        <v>0.532176901211126</v>
+        <v>0.530799474269748</v>
       </c>
       <c r="E23" t="n">
-        <v>0.383994484976874</v>
+        <v>0.385635674524048</v>
       </c>
       <c r="F23" t="n">
-        <v>0.545124879328682</v>
+        <v>0.543483689781508</v>
       </c>
       <c r="G23" t="n">
-        <v>0.358673994435876</v>
+        <v>0.360830986412162</v>
       </c>
       <c r="H23" t="n">
-        <v>0.570445369869681</v>
+        <v>0.568288377893395</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
@@ -1384,25 +1384,25 @@
         <v>0.375317881805066</v>
       </c>
       <c r="B24" t="n">
-        <v>0.049642270606922</v>
+        <v>0.0501297532647362</v>
       </c>
       <c r="C24" t="n">
-        <v>0.293656346656679</v>
+        <v>0.292854437684574</v>
       </c>
       <c r="D24" t="n">
-        <v>0.456979416953452</v>
+        <v>0.457781325925557</v>
       </c>
       <c r="E24" t="n">
-        <v>0.278019031415499</v>
+        <v>0.277063565406183</v>
       </c>
       <c r="F24" t="n">
-        <v>0.472616732194633</v>
+        <v>0.473572198203949</v>
       </c>
       <c r="G24" t="n">
-        <v>0.247439392721635</v>
+        <v>0.246183637395105</v>
       </c>
       <c r="H24" t="n">
-        <v>0.503196370888497</v>
+        <v>0.504452126215026</v>
       </c>
       <c r="I24" t="s">
         <v>13</v>
@@ -1425,25 +1425,25 @@
         <v>0.425365764268454</v>
       </c>
       <c r="B25" t="n">
-        <v>0.101160567790981</v>
+        <v>0.102673953260745</v>
       </c>
       <c r="C25" t="n">
-        <v>0.25895663025229</v>
+        <v>0.256467111154529</v>
       </c>
       <c r="D25" t="n">
-        <v>0.591774898284618</v>
+        <v>0.594264417382379</v>
       </c>
       <c r="E25" t="n">
-        <v>0.227091051398131</v>
+        <v>0.224124815877394</v>
       </c>
       <c r="F25" t="n">
-        <v>0.623640477138777</v>
+        <v>0.626606712659514</v>
       </c>
       <c r="G25" t="n">
-        <v>0.164776141638887</v>
+        <v>0.160877660668775</v>
       </c>
       <c r="H25" t="n">
-        <v>0.685955386898021</v>
+        <v>0.689853867868133</v>
       </c>
       <c r="I25" t="s">
         <v>13</v>
@@ -1466,25 +1466,25 @@
         <v>0.0965010053608324</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0186004136360748</v>
+        <v>0.0190121493063917</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0659033249294894</v>
+        <v>0.065226019751818</v>
       </c>
       <c r="D26" t="n">
-        <v>0.127098685792175</v>
+        <v>0.127775990969847</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0600441946341258</v>
+        <v>0.0592371927203047</v>
       </c>
       <c r="F26" t="n">
-        <v>0.132957816087539</v>
+        <v>0.13376481800136</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0485863398343038</v>
+        <v>0.0475257087475674</v>
       </c>
       <c r="H26" t="n">
-        <v>0.144415670887361</v>
+        <v>0.145476301974097</v>
       </c>
       <c r="I26" t="s">
         <v>13</v>
@@ -1507,25 +1507,25 @@
         <v>0.0874102005945156</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0166123144648309</v>
+        <v>0.0171482758526583</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0600829432998687</v>
+        <v>0.0592012868168928</v>
       </c>
       <c r="D27" t="n">
-        <v>0.114737457889163</v>
+        <v>0.115619114372138</v>
       </c>
       <c r="E27" t="n">
-        <v>0.054850064243447</v>
+        <v>0.0537995799233054</v>
       </c>
       <c r="F27" t="n">
-        <v>0.119970336945584</v>
+        <v>0.121020821265726</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0446168785331111</v>
+        <v>0.0432362419980679</v>
       </c>
       <c r="H27" t="n">
-        <v>0.13020352265592</v>
+        <v>0.131584159190963</v>
       </c>
       <c r="I27" t="s">
         <v>13</v>
@@ -1548,25 +1548,25 @@
         <v>0.0993803656405873</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0145447636139905</v>
+        <v>0.0151120621481646</v>
       </c>
       <c r="C28" t="n">
-        <v>0.075454229495573</v>
+        <v>0.0745210234068566</v>
       </c>
       <c r="D28" t="n">
-        <v>0.123306501785602</v>
+        <v>0.124239707874318</v>
       </c>
       <c r="E28" t="n">
-        <v>0.070872628957166</v>
+        <v>0.0697607238301847</v>
       </c>
       <c r="F28" t="n">
-        <v>0.127888102324009</v>
+        <v>0.12900000745099</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0619130545709479</v>
+        <v>0.0604516935469153</v>
       </c>
       <c r="H28" t="n">
-        <v>0.136847676710227</v>
+        <v>0.138309037734259</v>
       </c>
       <c r="I28" t="s">
         <v>13</v>
@@ -1589,25 +1589,25 @@
         <v>0.0870562110906367</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0151718303379702</v>
+        <v>0.0160711790924842</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0620985501846757</v>
+        <v>0.0606191214835001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.112013871996598</v>
+        <v>0.113493300697773</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0573194236282151</v>
+        <v>0.0555567000693676</v>
       </c>
       <c r="F29" t="n">
-        <v>0.116792998553058</v>
+        <v>0.118555722111906</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0479735761400254</v>
+        <v>0.0456568537483973</v>
       </c>
       <c r="H29" t="n">
-        <v>0.126138846041248</v>
+        <v>0.128455568432876</v>
       </c>
       <c r="I29" t="s">
         <v>13</v>
@@ -1630,25 +1630,25 @@
         <v>0.10833203040346</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0150106988995432</v>
+        <v>0.0152362799559229</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0836394307137113</v>
+        <v>0.0832683498759667</v>
       </c>
       <c r="D30" t="n">
-        <v>0.133024630093208</v>
+        <v>0.133395710930953</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0789110605603552</v>
+        <v>0.078468921689851</v>
       </c>
       <c r="F30" t="n">
-        <v>0.137753000246565</v>
+        <v>0.138195139117069</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0696644700382366</v>
+        <v>0.0690833732370025</v>
       </c>
       <c r="H30" t="n">
-        <v>0.146999590768683</v>
+        <v>0.147580687569917</v>
       </c>
       <c r="I30" t="s">
         <v>13</v>
@@ -1671,25 +1671,25 @@
         <v>-0.0878738340462711</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0220098785195126</v>
+        <v>0.0216066686954051</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.124080084210869</v>
+        <v>-0.123416804050212</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.0516675838816729</v>
+        <v>-0.0523308640423297</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.131013195944516</v>
+        <v>-0.130222904689265</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.0447344721480264</v>
+        <v>-0.0455247634032771</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.144571281112536</v>
+        <v>-0.143532612605635</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.0311763869800067</v>
+        <v>-0.0322150554869076</v>
       </c>
       <c r="I31" t="s">
         <v>13</v>
@@ -1712,25 +1712,25 @@
         <v>0.100874550443148</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0162855686371912</v>
+        <v>0.0176956244060287</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0740847900349686</v>
+        <v>0.0717652482952309</v>
       </c>
       <c r="D32" t="n">
-        <v>0.127664310851328</v>
+        <v>0.129983852591065</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0689548359142533</v>
+        <v>0.0661911266073319</v>
       </c>
       <c r="F32" t="n">
-        <v>0.132794264972043</v>
+        <v>0.135557974278964</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0589229256337435</v>
+        <v>0.0552906219732182</v>
       </c>
       <c r="H32" t="n">
-        <v>0.142826175252553</v>
+        <v>0.146458478913078</v>
       </c>
       <c r="I32" t="s">
         <v>13</v>
@@ -1753,25 +1753,25 @@
         <v>0.400991976419202</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0285238618497655</v>
+        <v>0.0283087842915799</v>
       </c>
       <c r="C33" t="n">
-        <v>0.354070223676337</v>
+        <v>0.354424026259553</v>
       </c>
       <c r="D33" t="n">
-        <v>0.447913729162066</v>
+        <v>0.44755992657885</v>
       </c>
       <c r="E33" t="n">
-        <v>0.345085207193661</v>
+        <v>0.345506759207705</v>
       </c>
       <c r="F33" t="n">
-        <v>0.456898745644742</v>
+        <v>0.456477193630698</v>
       </c>
       <c r="G33" t="n">
-        <v>0.327514508294206</v>
+        <v>0.328068548084092</v>
       </c>
       <c r="H33" t="n">
-        <v>0.474469444544197</v>
+        <v>0.473915404754311</v>
       </c>
       <c r="I33" t="s">
         <v>13</v>

--- a/Output_code/Data/Table_2_stand.xlsx
+++ b/Output_code/Data/Table_2_stand.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">***</t>
   </si>
   <si>
-    <t xml:space="preserve">DataLong_Subs_sim_group1</t>
+    <t xml:space="preserve">Q1</t>
   </si>
   <si>
     <t xml:space="preserve">Relatedness_Cos2</t>
@@ -71,13 +71,13 @@
     <t xml:space="preserve">**</t>
   </si>
   <si>
-    <t xml:space="preserve">DataLong_Subs_sim_group2</t>
+    <t xml:space="preserve">IQR</t>
   </si>
   <si>
     <t xml:space="preserve">*</t>
   </si>
   <si>
-    <t xml:space="preserve">DataLong_Subs_sim_group3</t>
+    <t xml:space="preserve">Q4</t>
   </si>
   <si>
     <t xml:space="preserve">NoPatentsYearGUOtotal</t>
@@ -104,7 +104,7 @@
     <t xml:space="preserve">AIcodes</t>
   </si>
   <si>
-    <t xml:space="preserve">DataLong_Subs_sim_group0</t>
+    <t xml:space="preserve">All</t>
   </si>
 </sst>
 </file>
@@ -482,25 +482,25 @@
         <v>0.165017814910094</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0340211326644019</v>
+        <v>0.0317117626785359</v>
       </c>
       <c r="C2" t="n">
-        <v>0.109053051677153</v>
+        <v>0.112851965303903</v>
       </c>
       <c r="D2" t="n">
-        <v>0.220982578143035</v>
+        <v>0.217183664516286</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0983363948878665</v>
+        <v>0.102862760060164</v>
       </c>
       <c r="F2" t="n">
-        <v>0.231699234932322</v>
+        <v>0.227172869760025</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0773793771665949</v>
+        <v>0.0833283142501857</v>
       </c>
       <c r="H2" t="n">
-        <v>0.252656252653594</v>
+        <v>0.246707315570003</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -523,25 +523,25 @@
         <v>0.0552405270046893</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0260787250973549</v>
+        <v>0.0272243129095861</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0123410242195406</v>
+        <v>0.0104565322684203</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0981400297898381</v>
+        <v>0.100024521740958</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00412622581387377</v>
+        <v>0.00188087370190065</v>
       </c>
       <c r="F3" t="n">
-        <v>0.106354828195505</v>
+        <v>0.108600180307478</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0119382688460968</v>
+        <v>-0.0148893030504044</v>
       </c>
       <c r="H3" t="n">
-        <v>0.122419322855475</v>
+        <v>0.125370357059783</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
@@ -564,25 +564,25 @@
         <v>0.05408179487656</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0312112925670055</v>
+        <v>0.0309318071171133</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00273921860383592</v>
+        <v>0.00319897216890858</v>
       </c>
       <c r="D4" t="n">
-        <v>0.105424371149284</v>
+        <v>0.104964617584211</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.00709233855477082</v>
+        <v>-0.00654454707298212</v>
       </c>
       <c r="F4" t="n">
-        <v>0.115255928307891</v>
+        <v>0.114708136826102</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0263184947760462</v>
+        <v>-0.0255985402571239</v>
       </c>
       <c r="H4" t="n">
-        <v>0.134482084529166</v>
+        <v>0.133762130010244</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
@@ -605,25 +605,25 @@
         <v>0.100858088041179</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0283119353677098</v>
+        <v>0.0308726640890871</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0542849543612961</v>
+        <v>0.0500725556146305</v>
       </c>
       <c r="D5" t="n">
-        <v>0.147431221721061</v>
+        <v>0.151643620467727</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0453666947204675</v>
+        <v>0.0403476664265681</v>
       </c>
       <c r="F5" t="n">
-        <v>0.15634948136189</v>
+        <v>0.161368509655789</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0279265425339583</v>
+        <v>0.0213301053476904</v>
       </c>
       <c r="H5" t="n">
-        <v>0.173789633548399</v>
+        <v>0.180386070734667</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -646,25 +646,25 @@
         <v>0.065607061474195</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0196393803159271</v>
+        <v>0.0199236415090879</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0333002808544949</v>
+        <v>0.0328326711917454</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0979138420938951</v>
+        <v>0.0983814517566446</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0271138760549779</v>
+        <v>0.0265567241163827</v>
       </c>
       <c r="F6" t="n">
-        <v>0.104100246893412</v>
+        <v>0.104657398832007</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0150160177803668</v>
+        <v>0.0142837609467845</v>
       </c>
       <c r="H6" t="n">
-        <v>0.116198105168023</v>
+        <v>0.116930362001605</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
@@ -687,25 +687,25 @@
         <v>0.0962850860314941</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0280808878169318</v>
+        <v>0.0275974286821169</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0500920255726413</v>
+        <v>0.0508873158494119</v>
       </c>
       <c r="D7" t="n">
-        <v>0.142478146490347</v>
+        <v>0.141682856213576</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0412465459103077</v>
+        <v>0.0421941258145451</v>
       </c>
       <c r="F7" t="n">
-        <v>0.15132362615268</v>
+        <v>0.150376046248443</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0239487190150777</v>
+        <v>0.0251941097463611</v>
       </c>
       <c r="H7" t="n">
-        <v>0.16862145304791</v>
+        <v>0.167376062316627</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
@@ -728,25 +728,25 @@
         <v>0.140754998266255</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0291115198239441</v>
+        <v>0.0292288153933672</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0928665481558665</v>
+        <v>0.0926735969441655</v>
       </c>
       <c r="D8" t="n">
-        <v>0.188643448376643</v>
+        <v>0.188836399588344</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0836964194113241</v>
+        <v>0.0834665200952548</v>
       </c>
       <c r="F8" t="n">
-        <v>0.197813577121185</v>
+        <v>0.198043476437254</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0657637231997745</v>
+        <v>0.0654615698129406</v>
       </c>
       <c r="H8" t="n">
-        <v>0.215746273332735</v>
+        <v>0.216048426719568</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
@@ -769,25 +769,25 @@
         <v>0.088235519626047</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0232429210806394</v>
+        <v>0.0202595570127679</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0500009144483951</v>
+        <v>0.0549085483400438</v>
       </c>
       <c r="D9" t="n">
-        <v>0.126470124803699</v>
+        <v>0.12156249091205</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0426793943079937</v>
+        <v>0.048526787881022</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1337916449441</v>
+        <v>0.127944251371072</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0283617549223198</v>
+        <v>0.036046900761157</v>
       </c>
       <c r="H9" t="n">
-        <v>0.148109284329774</v>
+        <v>0.140424138490937</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
@@ -810,25 +810,25 @@
         <v>0.088914899085553</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0307616222278338</v>
+        <v>0.0308251569327746</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0383120305207663</v>
+        <v>0.0382075159311388</v>
       </c>
       <c r="D10" t="n">
-        <v>0.13951776765034</v>
+        <v>0.139622282239967</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0286221195189986</v>
+        <v>0.0284975914973148</v>
       </c>
       <c r="F10" t="n">
-        <v>0.149207678652107</v>
+        <v>0.149332206673791</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00967296022665298</v>
+        <v>0.00950929482672561</v>
       </c>
       <c r="H10" t="n">
-        <v>0.168156837944453</v>
+        <v>0.16832050334438</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -851,25 +851,25 @@
         <v>0.121340456798534</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0264094776025516</v>
+        <v>0.0281839698833711</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0778968661423362</v>
+        <v>0.0749778263403882</v>
       </c>
       <c r="D11" t="n">
-        <v>0.164784047454731</v>
+        <v>0.167703087256679</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0695778806975325</v>
+        <v>0.0660998758271263</v>
       </c>
       <c r="F11" t="n">
-        <v>0.173103032899535</v>
+        <v>0.176581037769941</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0533096424943607</v>
+        <v>0.0487385503789697</v>
       </c>
       <c r="H11" t="n">
-        <v>0.189371271102707</v>
+        <v>0.193942363218098</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
@@ -892,25 +892,25 @@
         <v>0.0750197302604821</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0282286681493984</v>
+        <v>0.0285776166485908</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0285835711547217</v>
+        <v>0.0280095508735502</v>
       </c>
       <c r="D12" t="n">
-        <v>0.121455889366242</v>
+        <v>0.122029909647414</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0196915406876612</v>
+        <v>0.0190076016292441</v>
       </c>
       <c r="F12" t="n">
-        <v>0.130347919833303</v>
+        <v>0.13103185889172</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00230268110763183</v>
+        <v>0.00140378977371211</v>
       </c>
       <c r="H12" t="n">
-        <v>0.147736779413332</v>
+        <v>0.148635670747252</v>
       </c>
       <c r="I12" t="s">
         <v>13</v>
@@ -933,25 +933,25 @@
         <v>0.0668459465025202</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0360899965195374</v>
+        <v>0.0356800013909377</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00747790222788111</v>
+        <v>0.00815234421442772</v>
       </c>
       <c r="D13" t="n">
-        <v>0.126213990777159</v>
+        <v>0.125539548790613</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.00389044667577318</v>
+        <v>-0.00308685622371764</v>
       </c>
       <c r="F13" t="n">
-        <v>0.137582339680814</v>
+        <v>0.136778749228758</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0261218845318082</v>
+        <v>-0.0250657370805352</v>
       </c>
       <c r="H13" t="n">
-        <v>0.159813777536849</v>
+        <v>0.158757630085576</v>
       </c>
       <c r="I13" t="s">
         <v>20</v>
@@ -974,25 +974,25 @@
         <v>0.142563289509739</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0341328438902724</v>
+        <v>0.0336239173062792</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0864147613102405</v>
+        <v>0.0872519455409093</v>
       </c>
       <c r="D14" t="n">
-        <v>0.198711817709237</v>
+        <v>0.197874633478568</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0756629154848047</v>
+        <v>0.0766604115894313</v>
       </c>
       <c r="F14" t="n">
-        <v>0.209463663534673</v>
+        <v>0.208466167430046</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0546370836483969</v>
+        <v>0.0559480785287634</v>
       </c>
       <c r="H14" t="n">
-        <v>0.23048949537108</v>
+        <v>0.229178500490714</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
@@ -1015,25 +1015,25 @@
         <v>0.0956087066241622</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0229980284523423</v>
+        <v>0.021561527218606</v>
       </c>
       <c r="C15" t="n">
-        <v>0.057776949820059</v>
+        <v>0.0601399943495554</v>
       </c>
       <c r="D15" t="n">
-        <v>0.133440463428265</v>
+        <v>0.131077418898769</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0505325708575712</v>
+        <v>0.0533481132756945</v>
       </c>
       <c r="F15" t="n">
-        <v>0.140684842390753</v>
+        <v>0.13786929997263</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0363657853309283</v>
+        <v>0.0400662125090332</v>
       </c>
       <c r="H15" t="n">
-        <v>0.154851627917396</v>
+        <v>0.151151200739291</v>
       </c>
       <c r="I15" t="s">
         <v>13</v>
@@ -1056,25 +1056,25 @@
         <v>0.105681134864202</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0248264934398321</v>
+        <v>0.0241130872257025</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0648415531556785</v>
+        <v>0.0660151063779216</v>
       </c>
       <c r="D16" t="n">
-        <v>0.146520716572726</v>
+        <v>0.145347163350483</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0570212077221314</v>
+        <v>0.0584194839018253</v>
       </c>
       <c r="F16" t="n">
-        <v>0.154341062006273</v>
+        <v>0.152942785826579</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0417280877631948</v>
+        <v>0.0435658221707925</v>
       </c>
       <c r="H16" t="n">
-        <v>0.16963418196521</v>
+        <v>0.167796447557612</v>
       </c>
       <c r="I16" t="s">
         <v>13</v>
@@ -1097,25 +1097,25 @@
         <v>-0.132835101193132</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0412787640723657</v>
+        <v>0.0389497325623091</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.200738668092174</v>
+        <v>-0.196907411258131</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0649315342940907</v>
+        <v>-0.0687627911281338</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.213741478774969</v>
+        <v>-0.209176577015258</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0519287236112955</v>
+        <v>-0.0564936253710065</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.239169197443546</v>
+        <v>-0.233169612273641</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.0265010049427182</v>
+        <v>-0.032500590112624</v>
       </c>
       <c r="I17" t="s">
         <v>13</v>
@@ -1138,25 +1138,25 @@
         <v>-0.0621421633723978</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0326480778934384</v>
+        <v>0.0334162152892192</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.115848251507104</v>
+        <v>-0.117111837523163</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.00843607523769165</v>
+        <v>-0.00717248922163217</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.126132396043537</v>
+        <v>-0.127637945339267</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00184806929874144</v>
+        <v>0.00335361859447189</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.146243612025895</v>
+        <v>-0.148222333957427</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0219592852810995</v>
+        <v>0.0239380072126309</v>
       </c>
       <c r="I18" t="s">
         <v>20</v>
@@ -1179,25 +1179,25 @@
         <v>-0.0410718673941528</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0365840856413898</v>
+        <v>0.0348737203903345</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.101252688274239</v>
+        <v>-0.0984391374362531</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0191089534859335</v>
+        <v>0.0162954026479475</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.112776675251277</v>
+        <v>-0.109424359359209</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0306329404629713</v>
+        <v>0.0272806245709028</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.135312472006373</v>
+        <v>-0.130906571119655</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0531687372180674</v>
+        <v>0.0487628363313489</v>
       </c>
       <c r="I19" t="s">
         <v>27</v>
@@ -1220,25 +1220,25 @@
         <v>0.142361838877443</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0317343660810135</v>
+        <v>0.033583284798322</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0901588066741761</v>
+        <v>0.0871173353842036</v>
       </c>
       <c r="D20" t="n">
-        <v>0.19456487108071</v>
+        <v>0.197606342370683</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0801624813586568</v>
+        <v>0.0765386006727321</v>
       </c>
       <c r="F20" t="n">
-        <v>0.20456119639623</v>
+        <v>0.208185077082154</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0606141118527525</v>
+        <v>0.0558512972369658</v>
       </c>
       <c r="H20" t="n">
-        <v>0.224109565902134</v>
+        <v>0.228872380517921</v>
       </c>
       <c r="I20" t="s">
         <v>13</v>
@@ -1261,25 +1261,25 @@
         <v>0.0798637326132217</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0239058301555318</v>
+        <v>0.0240185430443433</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0405386420073718</v>
+        <v>0.040353229305277</v>
       </c>
       <c r="D21" t="n">
-        <v>0.119188823219072</v>
+        <v>0.119374235921166</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0330083055083793</v>
+        <v>0.0327873882463089</v>
       </c>
       <c r="F21" t="n">
-        <v>0.126719159718064</v>
+        <v>0.126940076980135</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0182823141325717</v>
+        <v>0.0179919657309934</v>
       </c>
       <c r="H21" t="n">
-        <v>0.141445151093872</v>
+        <v>0.14173549949545</v>
       </c>
       <c r="I21" t="s">
         <v>13</v>
@@ -1302,25 +1302,25 @@
         <v>0.073707254515357</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0306448083311828</v>
+        <v>0.0326277793388932</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0232965448105614</v>
+        <v>0.0200345575028777</v>
       </c>
       <c r="D22" t="n">
-        <v>0.124117964220153</v>
+        <v>0.127379951527836</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0136434301862388</v>
+        <v>0.00975680701112638</v>
       </c>
       <c r="F22" t="n">
-        <v>0.133771078844475</v>
+        <v>0.137657702019588</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.00523377174576978</v>
+        <v>-0.0103419050616318</v>
       </c>
       <c r="H22" t="n">
-        <v>0.152648280776484</v>
+        <v>0.157756414092346</v>
       </c>
       <c r="I22" t="s">
         <v>18</v>
@@ -1343,25 +1343,25 @@
         <v>0.464559682152778</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0402673508309846</v>
+        <v>0.0422061469905741</v>
       </c>
       <c r="C23" t="n">
-        <v>0.398319890035808</v>
+        <v>0.395130570353284</v>
       </c>
       <c r="D23" t="n">
-        <v>0.530799474269748</v>
+        <v>0.533988793952273</v>
       </c>
       <c r="E23" t="n">
-        <v>0.385635674524048</v>
+        <v>0.381835634051253</v>
       </c>
       <c r="F23" t="n">
-        <v>0.543483689781508</v>
+        <v>0.547283730254303</v>
       </c>
       <c r="G23" t="n">
-        <v>0.360830986412162</v>
+        <v>0.355836647505059</v>
       </c>
       <c r="H23" t="n">
-        <v>0.568288377893395</v>
+        <v>0.573282716800497</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
@@ -1384,25 +1384,25 @@
         <v>0.375317881805066</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0501297532647362</v>
+        <v>0.048838754152003</v>
       </c>
       <c r="C24" t="n">
-        <v>0.292854437684574</v>
+        <v>0.294978131225021</v>
       </c>
       <c r="D24" t="n">
-        <v>0.457781325925557</v>
+        <v>0.45565763238511</v>
       </c>
       <c r="E24" t="n">
-        <v>0.277063565406183</v>
+        <v>0.27959392366714</v>
       </c>
       <c r="F24" t="n">
-        <v>0.473572198203949</v>
+        <v>0.471041839942991</v>
       </c>
       <c r="G24" t="n">
-        <v>0.246183637395105</v>
+        <v>0.249509251109506</v>
       </c>
       <c r="H24" t="n">
-        <v>0.504452126215026</v>
+        <v>0.501126512500625</v>
       </c>
       <c r="I24" t="s">
         <v>13</v>
@@ -1425,25 +1425,25 @@
         <v>0.425365764268454</v>
       </c>
       <c r="B25" t="n">
-        <v>0.102673953260745</v>
+        <v>0.100556691669013</v>
       </c>
       <c r="C25" t="n">
-        <v>0.256467111154529</v>
+        <v>0.259950006472927</v>
       </c>
       <c r="D25" t="n">
-        <v>0.594264417382379</v>
+        <v>0.59078152206398</v>
       </c>
       <c r="E25" t="n">
-        <v>0.224124815877394</v>
+        <v>0.228274648597188</v>
       </c>
       <c r="F25" t="n">
-        <v>0.626606712659514</v>
+        <v>0.62245687993972</v>
       </c>
       <c r="G25" t="n">
-        <v>0.160877660668775</v>
+        <v>0.166331726529076</v>
       </c>
       <c r="H25" t="n">
-        <v>0.689853867868133</v>
+        <v>0.684399802007832</v>
       </c>
       <c r="I25" t="s">
         <v>13</v>
@@ -1466,25 +1466,25 @@
         <v>0.0965010053608324</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0190121493063917</v>
+        <v>0.0194564259956357</v>
       </c>
       <c r="C26" t="n">
-        <v>0.065226019751818</v>
+        <v>0.0644951845980117</v>
       </c>
       <c r="D26" t="n">
-        <v>0.127775990969847</v>
+        <v>0.128506826123653</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0592371927203047</v>
+        <v>0.0583664104093864</v>
       </c>
       <c r="F26" t="n">
-        <v>0.13376481800136</v>
+        <v>0.134635600312278</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0475257087475674</v>
+        <v>0.0463812519960748</v>
       </c>
       <c r="H26" t="n">
-        <v>0.145476301974097</v>
+        <v>0.14662075872559</v>
       </c>
       <c r="I26" t="s">
         <v>13</v>
@@ -1507,25 +1507,25 @@
         <v>0.0874102005945156</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0171482758526583</v>
+        <v>0.0161197130479783</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0592012868168928</v>
+        <v>0.0608932726305913</v>
       </c>
       <c r="D27" t="n">
-        <v>0.115619114372138</v>
+        <v>0.11392712855844</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0537995799233054</v>
+        <v>0.0558155630204782</v>
       </c>
       <c r="F27" t="n">
-        <v>0.121020821265726</v>
+        <v>0.119004838168553</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0432362419980679</v>
+        <v>0.0458858197829235</v>
       </c>
       <c r="H27" t="n">
-        <v>0.131584159190963</v>
+        <v>0.128934581406108</v>
       </c>
       <c r="I27" t="s">
         <v>13</v>
@@ -1548,25 +1548,25 @@
         <v>0.0993803656405873</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0151120621481646</v>
+        <v>0.0137076158803644</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0745210234068566</v>
+        <v>0.0768313375173878</v>
       </c>
       <c r="D28" t="n">
-        <v>0.124239707874318</v>
+        <v>0.121929393763787</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0697607238301847</v>
+        <v>0.072513438515073</v>
       </c>
       <c r="F28" t="n">
-        <v>0.12900000745099</v>
+        <v>0.126247292766102</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0604516935469153</v>
+        <v>0.0640695471327686</v>
       </c>
       <c r="H28" t="n">
-        <v>0.138309037734259</v>
+        <v>0.134691184148406</v>
       </c>
       <c r="I28" t="s">
         <v>13</v>
@@ -1589,25 +1589,25 @@
         <v>0.0870562110906367</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0160711790924842</v>
+        <v>0.016383047017448</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0606191214835001</v>
+        <v>0.0601060987469347</v>
       </c>
       <c r="D29" t="n">
-        <v>0.113493300697773</v>
+        <v>0.114006323434339</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0555567000693676</v>
+        <v>0.0549454389364386</v>
       </c>
       <c r="F29" t="n">
-        <v>0.118555722111906</v>
+        <v>0.119166983244835</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0456568537483973</v>
+        <v>0.0448534819736906</v>
       </c>
       <c r="H29" t="n">
-        <v>0.128455568432876</v>
+        <v>0.129258940207583</v>
       </c>
       <c r="I29" t="s">
         <v>13</v>
@@ -1630,25 +1630,25 @@
         <v>0.10833203040346</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0152362799559229</v>
+        <v>0.0147281342046797</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0832683498759667</v>
+        <v>0.0841042496367618</v>
       </c>
       <c r="D30" t="n">
-        <v>0.133395710930953</v>
+        <v>0.132559811170158</v>
       </c>
       <c r="E30" t="n">
-        <v>0.078468921689851</v>
+        <v>0.0794648873622877</v>
       </c>
       <c r="F30" t="n">
-        <v>0.138195139117069</v>
+        <v>0.137199173444632</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0690833732370025</v>
+        <v>0.070392356692205</v>
       </c>
       <c r="H30" t="n">
-        <v>0.147580687569917</v>
+        <v>0.146271704114715</v>
       </c>
       <c r="I30" t="s">
         <v>13</v>
@@ -1671,25 +1671,25 @@
         <v>-0.0878738340462711</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0216066686954051</v>
+        <v>0.0221783720233749</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.123416804050212</v>
+        <v>-0.124357256024723</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.0523308640423297</v>
+        <v>-0.0513904120678195</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.130222904689265</v>
+        <v>-0.131343443212086</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.0455247634032771</v>
+        <v>-0.0444042248804564</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.143532612605635</v>
+        <v>-0.145005320378485</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.0322150554869076</v>
+        <v>-0.0307423477140575</v>
       </c>
       <c r="I31" t="s">
         <v>13</v>
@@ -1712,25 +1712,25 @@
         <v>0.100874550443148</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0176956244060287</v>
+        <v>0.0173006335825244</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0717652482952309</v>
+        <v>0.0724150081998956</v>
       </c>
       <c r="D32" t="n">
-        <v>0.129983852591065</v>
+        <v>0.129334092686401</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0661911266073319</v>
+        <v>0.0669653086214004</v>
       </c>
       <c r="F32" t="n">
-        <v>0.135557974278964</v>
+        <v>0.134783792264896</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0552906219732182</v>
+        <v>0.0563081183345654</v>
       </c>
       <c r="H32" t="n">
-        <v>0.146458478913078</v>
+        <v>0.145440982551731</v>
       </c>
       <c r="I32" t="s">
         <v>13</v>
@@ -1753,25 +1753,25 @@
         <v>0.400991976419202</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0283087842915799</v>
+        <v>0.029629101859835</v>
       </c>
       <c r="C33" t="n">
-        <v>0.354424026259553</v>
+        <v>0.352252103859773</v>
       </c>
       <c r="D33" t="n">
-        <v>0.44755992657885</v>
+        <v>0.44973184897863</v>
       </c>
       <c r="E33" t="n">
-        <v>0.345506759207705</v>
+        <v>0.342918936773925</v>
       </c>
       <c r="F33" t="n">
-        <v>0.456477193630698</v>
+        <v>0.459065016064478</v>
       </c>
       <c r="G33" t="n">
-        <v>0.328068548084092</v>
+        <v>0.324667410028266</v>
       </c>
       <c r="H33" t="n">
-        <v>0.473915404754311</v>
+        <v>0.477316542810137</v>
       </c>
       <c r="I33" t="s">
         <v>13</v>
